--- a/NV.xlsx
+++ b/NV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torres Poveda\Documents\INGENIERIA DE SOFTWARE\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D78C1F37-9EBC-4E8C-AE79-B24FB626A45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40871D8-B1FB-4B10-A4F4-59E86BA6ADDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C27B7128-B5E3-4CC5-AC6A-CCDAC6E6A096}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Angulo V</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>SEG</t>
+  </si>
+  <si>
+    <t>Constantes</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +108,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,15 +129,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +473,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,59 +522,65 @@
         <v>7</v>
       </c>
       <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>850</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1.55</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>89</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>40</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <f>C2+(D2/60)+(E2/3600)</f>
         <v>89.673611111111114</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>4.0010000000000003</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>3.8929999999999998</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>3.7850000000000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <f>P3*(G2-I2)*((COS(P4-F2))^2)</f>
         <v>19.379516285369068</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <f>J2*TAN(P4-F2)</f>
         <v>6.5598704491085273</v>
       </c>
-      <c r="N2">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
         <f>A2+B2+K2-H2</f>
         <v>854.21687044910846</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P3">
+      <c r="P3" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P4">
+      <c r="P4" s="6">
         <v>90</v>
       </c>
     </row>
